--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1636.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1636.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.059300592491199</v>
+        <v>1.043333411216736</v>
       </c>
       <c r="B1">
-        <v>2.868473205872061</v>
+        <v>3.603909254074097</v>
       </c>
       <c r="C1">
-        <v>3.758455328131785</v>
+        <v>3.783582210540771</v>
       </c>
       <c r="D1">
-        <v>2.417501851117707</v>
+        <v>3.167818546295166</v>
       </c>
       <c r="E1">
-        <v>1.172538057061549</v>
+        <v>1.276435613632202</v>
       </c>
     </row>
   </sheetData>
